--- a/generated_docs/WR_89732091_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I40"/>
+  <dimension ref="A2:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:47 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1886.11</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -737,12 +737,12 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-10</t>
+          <t>CND-HLC10</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+          <t>CND,Hot Line Clamp 1/0</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,11 +761,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>20.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +776,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>CNC-SNB-10</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,11 +795,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>60.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +810,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CND-SA10</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact,1/0</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>24.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +844,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,20 +854,20 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>73.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +878,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>CND-SA10</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>CND,Stirrup,Ampact,1/0</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -912,30 +912,30 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,17 +946,17 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>EQL-1-4-C-4-C-LC1</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,32 +965,32 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>46.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>ANC-SHM-10-84-T1-C</t>
+          <t>GND-MD</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>ANC,Sgl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+          <t>GND,Wire Mldg Only</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,32 +999,32 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,28 +1037,28 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>34.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>SWI-27-CO1-100-H-C</t>
+          <t>JPR-10-AAA-1-B</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,28 +1071,28 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>53.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLD-EYE-C</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,32 +1101,32 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>60.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B-S</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,13 +1139,13 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
@@ -1173,18 +1173,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>195.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,13 +1207,13 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>46.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 06</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
@@ -1241,28 +1241,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG10</t>
+          <t>GYD-MPY</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>SVD, Service Grip, 1/0</t>
+          <t>GYD,Marker-Plastic-Yellow</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,32 +1271,32 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>572.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>GYF-38-42W-I-C</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,81 +1305,192 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>76.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H33" s="16" t="n">
-        <v>1732.99</v>
+      <c r="A33" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C33" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E33" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr"/>
+      <c r="H33" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20-C</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+        </is>
+      </c>
+      <c r="E34" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="10" t="inlineStr"/>
+      <c r="H34" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="12" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>SWI-27-CO1-100-H-C</t>
+        </is>
+      </c>
+      <c r="C35" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
+        </is>
+      </c>
+      <c r="E35" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr"/>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/08/2025)</t>
-        </is>
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Point 02</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E36" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="G36" s="10" t="inlineStr"/>
+      <c r="H36" s="11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G37" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H37" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>Point 03</t>
+        </is>
+      </c>
+      <c r="B37" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E37" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr"/>
+      <c r="H37" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 03</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1389,7 +1500,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1398,32 +1509,32 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>76.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1432,38 +1543,505 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>76.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="inlineStr">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Point 04</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="inlineStr">
+        <is>
+          <t>XFR-25-72-120-1B-S</t>
+        </is>
+      </c>
+      <c r="C40" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
+        </is>
+      </c>
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B41" s="12" t="inlineStr">
+        <is>
+          <t>LTD-APEC1KHM</t>
+        </is>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>LTD,Ar Lt,Ph Elec Cntr,1000W,Ht ProtMult</t>
+        </is>
+      </c>
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE-C</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend,Corrosive</t>
+        </is>
+      </c>
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B43" s="12" t="inlineStr">
+        <is>
+          <t>SVC-2-TP-ALA-RS</t>
+        </is>
+      </c>
+      <c r="C43" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D43" s="12" t="inlineStr">
+        <is>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+        </is>
+      </c>
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B44" s="9" t="inlineStr">
+        <is>
+          <t>SVD-3-CV</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
+        <is>
+          <t>SVD,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>ANC-SHM-10-84-T1-C</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Sgl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
+        <is>
+          <t>Point 06</t>
+        </is>
+      </c>
+      <c r="B47" s="12" t="inlineStr">
+        <is>
+          <t>GYF-38-78W-I-C</t>
+        </is>
+      </c>
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
+        <is>
+          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
+        </is>
+      </c>
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>SVD-SG10</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>SVD, Service Grip, 1/0</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H40" s="16" t="n">
-        <v>153.12</v>
+      <c r="H50" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/08/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B54" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D54" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E54" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F54" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G54" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H54" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>Point 05</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C55" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E55" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" s="10" t="inlineStr"/>
+      <c r="H55" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="12" t="inlineStr">
+        <is>
+          <t>Point 01</t>
+        </is>
+      </c>
+      <c r="B56" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C56" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D56" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E56" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="G56" s="13" t="inlineStr"/>
+      <c r="H56" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H57" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A53:H53"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A50:G50"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89732091_WeekEnding_081025.xlsx
+++ b/generated_docs/WR_89732091_WeekEnding_081025.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I57"/>
+  <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/18/2025 09:48 PM</t>
+          <t>Report Generated On: 08/26/2025 10:00 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0</v>
+        <v>1886.11</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -643,11 +643,7 @@
           <t>Scope ID #:</t>
         </is>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>R25P11</t>
-        </is>
-      </c>
+      <c r="G10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="F11" s="4" t="inlineStr">
@@ -737,12 +733,12 @@
     <row r="16">
       <c r="A16" s="9" t="inlineStr">
         <is>
-          <t>Point 05</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>CND-HLC10</t>
+          <t>CNC-SNB-10</t>
         </is>
       </c>
       <c r="C16" s="9" t="inlineStr">
@@ -752,7 +748,7 @@
       </c>
       <c r="D16" s="9" t="inlineStr">
         <is>
-          <t>CND,Hot Line Clamp 1/0</t>
+          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
         </is>
       </c>
       <c r="E16" s="9" t="inlineStr">
@@ -761,11 +757,11 @@
         </is>
       </c>
       <c r="F16" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>0</v>
+        <v>20.29</v>
       </c>
     </row>
     <row r="17">
@@ -776,7 +772,7 @@
       </c>
       <c r="B17" s="12" t="inlineStr">
         <is>
-          <t>CNC-SNB-10</t>
+          <t>CNC-SNB-2</t>
         </is>
       </c>
       <c r="C17" s="12" t="inlineStr">
@@ -786,7 +782,7 @@
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#336-#1033</t>
+          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
         </is>
       </c>
       <c r="E17" s="12" t="inlineStr">
@@ -795,11 +791,11 @@
         </is>
       </c>
       <c r="F17" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="18">
@@ -810,7 +806,7 @@
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>CNC-SNB-2</t>
+          <t>CND-SA10</t>
         </is>
       </c>
       <c r="C18" s="9" t="inlineStr">
@@ -820,7 +816,7 @@
       </c>
       <c r="D18" s="9" t="inlineStr">
         <is>
-          <t>CNC,Splice Non-Tension Bare,#6-#2</t>
+          <t>CND,Stirrup,Ampact,1/0</t>
         </is>
       </c>
       <c r="E18" s="9" t="inlineStr">
@@ -829,11 +825,11 @@
         </is>
       </c>
       <c r="F18" s="10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>0</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="19">
@@ -844,7 +840,7 @@
       </c>
       <c r="B19" s="12" t="inlineStr">
         <is>
-          <t>CND-HLC2</t>
+          <t>CON-10-AAA-3-P</t>
         </is>
       </c>
       <c r="C19" s="12" t="inlineStr">
@@ -854,20 +850,20 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>CND,Hot Line clamp #6-#2</t>
+          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
         </is>
       </c>
       <c r="E19" s="12" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="F19" s="13" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>0</v>
+        <v>73.44</v>
       </c>
     </row>
     <row r="20">
@@ -878,7 +874,7 @@
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>CND-SA10</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C20" s="9" t="inlineStr">
@@ -888,7 +884,7 @@
       </c>
       <c r="D20" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup,Ampact,1/0</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E20" s="9" t="inlineStr">
@@ -897,11 +893,11 @@
         </is>
       </c>
       <c r="F20" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>0</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="21">
@@ -912,30 +908,30 @@
       </c>
       <c r="B21" s="12" t="inlineStr">
         <is>
-          <t>CON-10-AAA-3-P</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>CON,#1/0 AWG,Alum Alloy,Three,Poly</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E21" s="12" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="F21" s="13" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="22">
@@ -946,17 +942,17 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-4-C-LC1</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,32 +961,32 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>0</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>GND-MD</t>
+          <t>ANC-SHM-10-84-T1-C</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>GND,Wire Mldg Only</t>
+          <t>ANC,Sgl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,32 +995,32 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>INS-15-D-S-C</t>
+          <t>SAA-DE-20-C</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Deadend,Polymer,Corr</t>
+          <t>SAA,DE Clamp #4-2/0, Corr.</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1037,28 +1033,28 @@
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 02</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>JPR-10-AAA-1-B</t>
+          <t>SWI-27-CO1-100-H-C</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>JPR,#1/0 AWG,Alum Alloy,One,Bare</t>
+          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1071,28 +1067,28 @@
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>0</v>
+        <v>53.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>PLD-EYE-C</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1101,32 +1097,32 @@
         </is>
       </c>
       <c r="F26" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>0</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 04</t>
         </is>
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20-C</t>
+          <t>XFR-25-72-120-1B-S</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,13 +1135,13 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
@@ -1173,18 +1169,18 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>0</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="12" t="inlineStr">
         <is>
-          <t>Point 01</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVD-3-CV</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1190,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVD,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1207,13 +1203,13 @@
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>0</v>
+        <v>46.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 06</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
@@ -1241,28 +1237,28 @@
       </c>
       <c r="G30" s="10" t="inlineStr"/>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="12" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B31" s="12" t="inlineStr">
         <is>
-          <t>GYD-MPY</t>
+          <t>SVD-SG10</t>
         </is>
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
+          <t>SVD, Service Grip, 1/0</t>
         </is>
       </c>
       <c r="E31" s="12" t="inlineStr">
@@ -1271,32 +1267,32 @@
         </is>
       </c>
       <c r="F31" s="13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" s="13" t="inlineStr"/>
       <c r="H31" s="14" t="n">
-        <v>0</v>
+        <v>572.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="inlineStr">
         <is>
-          <t>Point 02</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>GYF-38-42W-I-C</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C32" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D32" s="9" t="inlineStr">
         <is>
-          <t>GYF,3/8,42In Wire Mt,InsulatorAdder,Corr</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E32" s="9" t="inlineStr">
@@ -1305,192 +1301,81 @@
         </is>
       </c>
       <c r="F32" s="10" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G32" s="10" t="inlineStr"/>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B33" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-78W-I-C</t>
-        </is>
-      </c>
-      <c r="C33" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D33" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
-        </is>
-      </c>
-      <c r="E33" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="13" t="inlineStr"/>
-      <c r="H33" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20-C</t>
-        </is>
-      </c>
-      <c r="C34" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D34" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0, Corr.</t>
-        </is>
-      </c>
-      <c r="E34" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F34" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="10" t="inlineStr"/>
-      <c r="H34" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B35" s="12" t="inlineStr">
-        <is>
-          <t>SWI-27-CO1-100-H-C</t>
-        </is>
-      </c>
-      <c r="C35" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D35" s="12" t="inlineStr">
-        <is>
-          <t>SWI,27kV,Line Cutout 1PH,100A,Hook,C</t>
-        </is>
-      </c>
-      <c r="E35" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G35" s="13" t="inlineStr"/>
-      <c r="H35" s="14" t="n">
-        <v>0</v>
+      <c r="A33" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H33" s="16" t="n">
+        <v>1732.99</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="inlineStr">
-        <is>
-          <t>Point 02</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="inlineStr">
-        <is>
-          <t>TIE-4-ALH-F</t>
-        </is>
-      </c>
-      <c r="C36" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D36" s="9" t="inlineStr">
-        <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
-        </is>
-      </c>
-      <c r="E36" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="G36" s="10" t="inlineStr"/>
-      <c r="H36" s="11" t="n">
-        <v>0</v>
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>Friday (08/08/2025)</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>Point 03</t>
-        </is>
-      </c>
-      <c r="B37" s="12" t="inlineStr">
-        <is>
-          <t>GND-MD</t>
-        </is>
-      </c>
-      <c r="C37" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D37" s="12" t="inlineStr">
-        <is>
-          <t>GND,Wire Mldg Only</t>
-        </is>
-      </c>
-      <c r="E37" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" s="13" t="inlineStr"/>
-      <c r="H37" s="14" t="n">
-        <v>0</v>
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="inlineStr">
         <is>
-          <t>Point 03</t>
+          <t>Point 05</t>
         </is>
       </c>
       <c r="B38" s="9" t="inlineStr">
         <is>
-          <t>TIE-4-ALH-F</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C38" s="9" t="inlineStr">
@@ -1500,7 +1385,7 @@
       </c>
       <c r="D38" s="9" t="inlineStr">
         <is>
-          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E38" s="9" t="inlineStr">
@@ -1509,32 +1394,32 @@
         </is>
       </c>
       <c r="F38" s="10" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G38" s="10" t="inlineStr"/>
       <c r="H38" s="11" t="n">
-        <v>0</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="12" t="inlineStr">
         <is>
-          <t>Point 04</t>
+          <t>Point 01</t>
         </is>
       </c>
       <c r="B39" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C39" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D39" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E39" s="12" t="inlineStr">
@@ -1543,505 +1428,38 @@
         </is>
       </c>
       <c r="F39" s="13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G39" s="13" t="inlineStr"/>
       <c r="H39" s="14" t="n">
-        <v>0</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="inlineStr">
-        <is>
-          <t>Point 04</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="inlineStr">
-        <is>
-          <t>XFR-25-72-120-1B-S</t>
-        </is>
-      </c>
-      <c r="C40" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D40" s="9" t="inlineStr">
-        <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG,SS</t>
-        </is>
-      </c>
-      <c r="E40" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10" t="inlineStr"/>
-      <c r="H40" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B41" s="12" t="inlineStr">
-        <is>
-          <t>LTD-APEC1KHM</t>
-        </is>
-      </c>
-      <c r="C41" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D41" s="12" t="inlineStr">
-        <is>
-          <t>LTD,Ar Lt,Ph Elec Cntr,1000W,Ht ProtMult</t>
-        </is>
-      </c>
-      <c r="E41" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="13" t="inlineStr"/>
-      <c r="H41" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B42" s="9" t="inlineStr">
-        <is>
-          <t>PLD-EYE-C</t>
-        </is>
-      </c>
-      <c r="C42" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="9" t="inlineStr">
-        <is>
-          <t>PLD,Eyebolt Deadend,Corrosive</t>
-        </is>
-      </c>
-      <c r="E42" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="G42" s="10" t="inlineStr"/>
-      <c r="H42" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B43" s="12" t="inlineStr">
-        <is>
-          <t>SVC-2-TP-ALA-RS</t>
-        </is>
-      </c>
-      <c r="C43" s="12" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D43" s="12" t="inlineStr">
-        <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
-        </is>
-      </c>
-      <c r="E43" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="13" t="inlineStr"/>
-      <c r="H43" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="inlineStr">
-        <is>
-          <t>SVD-3-CV</t>
-        </is>
-      </c>
-      <c r="C44" s="9" t="inlineStr">
-        <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="D44" s="9" t="inlineStr">
-        <is>
-          <t>SVD,3 inch,Clevis</t>
-        </is>
-      </c>
-      <c r="E44" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10" t="inlineStr"/>
-      <c r="H44" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B45" s="12" t="inlineStr">
-        <is>
-          <t>ANC-SHM-10-84-T1-C</t>
-        </is>
-      </c>
-      <c r="C45" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D45" s="12" t="inlineStr">
-        <is>
-          <t>ANC,Sgl Hlx Mach,10in,84in,TpEye 1in,Cor</t>
-        </is>
-      </c>
-      <c r="E45" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="13" t="inlineStr"/>
-      <c r="H45" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="inlineStr">
-        <is>
-          <t>GYD-MPY</t>
-        </is>
-      </c>
-      <c r="C46" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D46" s="9" t="inlineStr">
-        <is>
-          <t>GYD,Marker-Plastic-Yellow</t>
-        </is>
-      </c>
-      <c r="E46" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10" t="inlineStr"/>
-      <c r="H46" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
-        <is>
-          <t>Point 06</t>
-        </is>
-      </c>
-      <c r="B47" s="12" t="inlineStr">
-        <is>
-          <t>GYF-38-78W-I-C</t>
-        </is>
-      </c>
-      <c r="C47" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D47" s="12" t="inlineStr">
-        <is>
-          <t>GYF,3/8,78Wire mt,Insulator Adder,Corros</t>
-        </is>
-      </c>
-      <c r="E47" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="13" t="inlineStr"/>
-      <c r="H47" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="9" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="inlineStr">
-        <is>
-          <t>SVD-SG10</t>
-        </is>
-      </c>
-      <c r="C48" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="9" t="inlineStr">
-        <is>
-          <t>SVD, Service Grip, 1/0</t>
-        </is>
-      </c>
-      <c r="E48" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" s="10" t="inlineStr"/>
-      <c r="H48" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B49" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C49" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E49" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G49" s="13" t="inlineStr"/>
-      <c r="H49" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="15" t="inlineStr">
+      <c r="A40" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H50" s="16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="inlineStr">
-        <is>
-          <t>Friday (08/08/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B54" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C54" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D54" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E54" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H54" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>Point 05</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C55" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D55" s="9" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E55" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="G55" s="10" t="inlineStr"/>
-      <c r="H55" s="11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t>Point 01</t>
-        </is>
-      </c>
-      <c r="B56" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C56" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D56" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E56" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F56" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G56" s="13" t="inlineStr"/>
-      <c r="H56" s="14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H57" s="16" t="n">
-        <v>0</v>
+      <c r="H40" s="16" t="n">
+        <v>153.12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A40:G40"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A50:G50"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A14:H14"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="A57:G57"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
